--- a/RecipeDatabase.xlsx
+++ b/RecipeDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronbrock/Documents/SPRING23/Databases/RecipeKeeper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64263C02-FD46-1347-98E2-A0B293935C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7F5C0-882E-0446-B59B-6C8FDFAD73DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="16380" xr2:uid="{74E9607C-BA18-9541-9398-32AFFFD90190}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -310,6 +310,576 @@
 Fresh parsley or chives, chopped (for garnish)</t>
   </si>
   <si>
+    <t xml:space="preserve">Vegan </t>
+  </si>
+  <si>
+    <t>Chickpea Curry</t>
+  </si>
+  <si>
+    <t>1 can chickpeas, drained and rinsed
+1 onion, chopped
+1 garlic clove, minced
+1 tbsp olive oil
+1 tbsp curry powder
+1/2 tsp cumin
+1/4 tsp turmeric
+Salt and pepper to taste
+1 can diced tomatoes
+1 cup vegetable broth
+1 cup spinach leaves
+Cooked rice or naan bread, for serving</t>
+  </si>
+  <si>
+    <t>In a large skillet, sauté the onion and garlic in olive oil over medium heat until softened.
+Add the chickpeas, curry powder, cumin, turmeric, salt, and pepper, and stir to coat.
+Add the diced tomatoes and vegetable broth, and stir to combine.
+Bring the mixture to a simmer and cook for 10-15 minutes, or until the sauce has thickened and the chickpeas are tender.
+Add the spinach leaves and stir until wilted.
+Serve the curry over cooked rice or with naan bread.</t>
+  </si>
+  <si>
+    <t>Grilled Cheese and Tomato Soup</t>
+  </si>
+  <si>
+    <t>4 slices bread
+4 slices cheddar cheese
+2 tbsp butter
+1 can tomato soup
+1 can water
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>Preheat a skillet or griddle over medium heat.
+Butter one side of each bread slice.
+Place a slice of cheese between two slices of bread, with the buttered sides facing out.
+Grill the sandwiches until the bread is toasted and the cheese is melted, flipping once.
+Meanwhile, heat the tomato soup and water in a pot over medium heat, stirring occasionally.
+Season the soup with salt and pepper to taste.
+Serve the grilled cheese sandwiches with a side of tomato soup for dipping.</t>
+  </si>
+  <si>
+    <t>Chickpea Salad</t>
+  </si>
+  <si>
+    <t>1 can chickpeas, drained and rinsed
+1/2 cup cherry tomatoes, halved
+1/2 cup cucumber, diced
+1/4 cup red onion, diced
+1/4 cup fresh parsley, chopped
+2 tbsp olive oil
+1 tbsp lemon juice
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>n a bowl, combine the chickpeas, cherry tomatoes, cucumber, red onion, and parsley.
+In a small bowl, whisk together the olive oil, lemon juice, salt, and pepper.
+Pour the dressing over the chickpea salad and toss to coat.
+Serve the chickpea salad cold or at room temperature.</t>
+  </si>
+  <si>
+    <t>Caprese Salad</t>
+  </si>
+  <si>
+    <t>2 large ripe tomatoes, sliced
+8 oz fresh mozzarella, sliced
+1/4 cup fresh basil leaves
+2 tbsp balsamic vinegar
+2 tbsp olive oil
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>On a platter or individual plates, arrange the tomato and mozzarella slices in an alternating pattern.
+Scatter the basil leaves over the top.
+In a small bowl, whisk together the balsamic vinegar, olive oil, salt, and pepper.
+Drizzle the dressing over the Caprese salad. Serve immediately</t>
+  </si>
+  <si>
+    <t>Turkey and Avocado Wrap</t>
+  </si>
+  <si>
+    <t>1 large tortilla wrap
+2 oz deli turkey
+1/2 avocado, sliced
+1/4 cup shredded lettuce
+1/4 cup shredded cheddar cheese
+1 tbsp ranch dressing</t>
+  </si>
+  <si>
+    <t>Lay the tortilla wrap flat on a work surface.
+Arrange the deli turkey, avocado, shredded lettuce, and shredded cheddar cheese down the center of the wrap.
+Drizzle the ranch dressing over the top.
+Fold the sides of the wrap inward, then roll it up from the bottom to enclose the filling.
+Cut the wrap in half on a diagonal, and serve.</t>
+  </si>
+  <si>
+    <t>Greek Salad</t>
+  </si>
+  <si>
+    <t>2 cups mixed salad greens
+1/2 cup cherry tomatoes, halved
+1/4 cup sliced red onion
+1/4 cup sliced kalamata olives
+1/4 cup crumbled feta cheese
+2 tbsp olive oil
+1 tbsp lemon juice
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>In a large bowl, combine the salad greens, cherry tomatoes, red onion, kalamata olives, and feta cheese.
+In a small bowl, whisk together the olive oil, lemon juice, salt, and pepper.
+Pour the dressing over the salad and toss to coat.
+Serve the Greek salad cold or at room temperature.</t>
+  </si>
+  <si>
+    <t>Tuna Melt</t>
+  </si>
+  <si>
+    <t>2 slices bread
+1 can tuna, drained
+1/4 cup mayonnaise
+1/4 cup chopped celery
+1/4 cup chopped onion
+2 slices cheddar cheese</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 350°F.
+In a bowl, mix together the tuna, mayonnaise, celery, and onion.
+Place one slice of bread on a baking sheet.
+Spread the tuna mixture evenly over the bread.
+Top the tuna mixture with the cheddar cheese slices.
+Place the second slice of bread on top of the cheese.
+Bake the tuna melt in the oven for 10-15 minutes, or until the cheese is melted and bubbly.
+Serve the tuna melt hot.</t>
+  </si>
+  <si>
+    <t>Vietnamese Banh Mi Sandwich</t>
+  </si>
+  <si>
+    <t>1 lb boneless pork shoulder, sliced thin
+2 tbsp soy sauce
+2 tbsp fish sauce
+2 tbsp honey
+2 tbsp vegetable oil
+1 baguette, sliced
+1/4 cup mayonnaise
+1/4 cup pickled carrots and daikon (store-bought or homemade)
+1/4 cup fresh cilantro leaves
+1 jalapeño pepper, sliced
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 350°F.
+In a bowl, whisk together the soy sauce, fish sauce, honey, and vegetable oil.
+Add the sliced pork to the bowl and toss to coat.
+Place the pork in a baking dish and bake in the oven for 30-40 minutes, or until cooked through.
+Meanwhile, spread the mayonnaise on the baguette. When the pork is done, remove it from the oven and let it rest for a few minutes.
+Slice the baguette into sandwich-sized pieces and layer the pickled carrots and daikon, cilantro leaves, and jalapeño slices on top of the mayonnaise.
+Add the sliced pork to the sandwich.
+Season with salt and pepper to taste.</t>
+  </si>
+  <si>
+    <t>One-Pot Tomato Basil Pasta</t>
+  </si>
+  <si>
+    <t>8 oz spaghetti
+1 can diced tomatoes
+2 cloves garlic, minced
+2 cups vegetable broth
+1/2 cup fresh basil leaves, chopped
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>In a large pot, combine the spaghetti, diced tomatoes, garlic, and vegetable broth.
+Bring the mixture to a boil, then reduce the heat and let it simmer for about 10-12 minutes, or until the pasta is cooked and the liquid has mostly been absorbed.
+Stir in the chopped basil and season with salt and pepper to taste.
+Serve the tomato basil pasta hot.</t>
+  </si>
+  <si>
+    <t>Lemon Herb Roasted Chicken</t>
+  </si>
+  <si>
+    <t>1 whole chicken, about 3-4 lbs
+1/4 cup olive oil
+2 tbsp lemon juice
+2 tbsp chopped fresh herbs (rosemary, thyme, oregano)
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 400°F.
+In a small bowl, whisk together the olive oil, lemon juice, chopped herbs, salt, and pepper.
+Rub the mixture all over the chicken, making sure to coat it well.
+Place the chicken in a roasting pan, breast-side up.
+Roast the chicken for about 1 hour and 15 minutes, or until the internal temperature reaches 165°F.
+Let the chicken rest for about 10 minutes before carving and serving.</t>
+  </si>
+  <si>
+    <t>Beef Stir-Fry with Vegetables</t>
+  </si>
+  <si>
+    <t>1 lb flank steak, sliced thin
+2 tbsp cornstarch
+2 tbsp vegetable oil
+2 cups mixed vegetables (broccoli, bell peppers, carrots, snap peas, etc.)
+2 cloves garlic, minced
+1 tbsp ginger, minced
+2 tbsp soy sauce
+1 tbsp hoisin sauce
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>In a large bowl, toss the sliced flank steak with the cornstarch until it's evenly coated.
+Heat the vegetable oil in a large wok or skillet over high heat.
+Add the sliced steak to the skillet and cook for about 2-3 minutes per side, or until browned and crispy.
+Remove the steak from the skillet and set it aside.
+Add the mixed vegetables, garlic, and ginger to the skillet and cook for about 3-4 minutes, or until the vegetables are tender-crisp.
+Add the soy sauce and hoisin sauce to the skillet and stir to combine.
+Return the cooked steak to the skillet and toss to coat it in the sauce.
+Season with salt and pepper to taste.
+Serve the beef stir-fry hot with rice or noodles.</t>
+  </si>
+  <si>
+    <t>Baked Salmon with Honey Mustard Glaze</t>
+  </si>
+  <si>
+    <t>4 salmon fillets, about 6 oz each
+1/4 cup Dijon mustard
+1/4 cup honey
+2 tbsp olive oil
+1 tsp garlic powder
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preheat the oven to 400°F.
+In a small bowl, whisk together the Dijon mustard, honey, olive oil, garlic powder, salt, and pepper.
+Arrange the salmon fillets in a baking dish and brush the honey mustard glaze over them.
+4. Bake the salmon for about 15-20 minutes, or until it's cooked through and flakes easily with a fork.
+</t>
+  </si>
+  <si>
+    <t>Black Bean Enchiladas</t>
+  </si>
+  <si>
+    <t>1 can black beans, drained and rinsed
+1/2 cup corn kernels
+1 red bell pepper, diced
+1/2 onion, diced
+1 jalapeno pepper, seeded and diced
+1 tsp ground cumin
+1 tsp chili powder
+Salt and pepper to taste
+12 corn tortillas
+1 can enchilada sauce
+1 cup shredded cheese</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 375°F.
+In a large bowl, combine the black beans, corn, red bell pepper, onion, jalapeno pepper, cumin, chili powder, salt, and pepper.
+Microwave the tortillas for about 20 seconds to make them pliable.
+Spoon the black bean mixture onto each tortilla and roll it up tightly.
+Arrange the rolled tortillas in a baking dish.
+Pour the enchilada sauce over the tortillas and sprinkle the shredded cheese on top.
+Cover the baking dish with foil and bake the enchiladas for about 30 minutes.
+Remove the foil and bake for an additional 10 minutes, or until the cheese is melted and bubbly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Pot Spaghetti Bolognese </t>
+  </si>
+  <si>
+    <t>1 pound ground beef
+1 onion, chopped
+2 cloves garlic, minced
+1 can crushed tomatoes
+4 cups beef broth
+1 tsp dried basil
+1 tsp dried oregano
+Salt and pepper to taste
+12 oz spaghetti
+Parmesan cheese for serving</t>
+  </si>
+  <si>
+    <t>In a large pot, brown the ground beef over medium-high heat until cooked through.
+Add the onion and garlic and sauté for a few minutes until softened.
+Add the crushed tomatoes, beef broth, basil, oregano, salt, and pepper and bring to a boil.
+Break the spaghetti in half and add it to the pot, stirring occasionally.
+Cook the spaghetti in the sauce for about 15-20 minutes, or until it's cooked to your liking.
+Serve the spaghetti Bolognese hot with Parmesan cheese on top.</t>
+  </si>
+  <si>
+    <t>Pan-Seared Steak with Garlic Butter</t>
+  </si>
+  <si>
+    <t>2 6-ounce sirloin steaks
+2 cloves garlic, minced
+4 tbsp unsalted butter, softened
+Salt and pepper to taste</t>
+  </si>
+  <si>
+    <t>Preheat a cast-iron skillet over high heat.
+Season the steaks generously with salt and pepper.
+Place the steaks in the hot skillet and sear for about 3-4 minutes on each side, or until a crust forms.
+Remove the steaks from the skillet and let them rest on a cutting board.
+In a small bowl, mix together the garlic and softened butter.
+Slice the steaks and top each slice with a dollop of garlic butter.
+Serve the pan-seared steak with garlic butter hot with your favorite side dishes.</t>
+  </si>
+  <si>
+    <t>Stuffed Eggplant</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>2 medium-sized eggplants
+1 cup quinoa
+2 cups vegetable broth
+1 onion, diced
+2 garlic cloves, minced
+2 tablespoons olive oil
+1 teaspoon dried oregano
+1 teaspoon dried thyme
+1/2 teaspoon salt
+1/4 teaspoon black pepper
+1/4 cup chopped fresh parsley
+1/4 cup chopped fresh mint
+1/2 cup chopped walnuts
+1/2 cup dried cranberries
+1/4 cup lemon juice
+1/4 cup water</t>
+  </si>
+  <si>
+    <t>Lentil Soup</t>
+  </si>
+  <si>
+    <t>1 tbsp olive oil
+1 onion, chopped
+3 cloves garlic, minced
+2 carrots, chopped
+2 stalks celery, chopped
+1 cup green lentils, rinsed and drained
+4 cups vegetable broth
+1 tsp dried thyme
+Salt and pepper, to taste</t>
+  </si>
+  <si>
+    <t>Heat olive oil in a large pot over medium heat.
+Add onion and garlic, and sauté until onion is translucent.
+Add carrots and celery, and sauté for 5-7 minutes.
+Add lentils, vegetable broth, thyme, salt, and pepper. Bring to a boil, then reduce heat and simmer for 30 minutes.
+Serve hot with crusty bread.</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 375°F.
+Cut off the top of each eggplant and scoop out the flesh with a spoon. Place the eggplants in a baking dish and set aside.
+Rinse quinoa and drain. Add quinoa, vegetable broth, and a pinch of salt to a pot and bring to a boil. Lower heat, cover, and let simmer for 20-25 minutes.
+Heat the olive oil in a large skillet over medium heat. Add the onion and garlic and sauté for 5 minutes, until soft and translucent.
+Add the cooked quinoa, oregano, thyme, salt, pepper, parsley, mint, walnuts, cranberries, lemon juice, and water to the skillet. Cook for 5-7 minutes, until the mixture is heated through and the flavors have melded.
+Spoon the quinoa mixture into the eggplants and cover the baking dish with foil. Bake for 45-60 minutes, until the eggplants are soft and the filling is heated through.</t>
+  </si>
+  <si>
+    <t>Beef and Mushroom Stroganoff</t>
+  </si>
+  <si>
+    <t>1 pound ground beef
+1 onion, diced
+8 ounces sliced mushrooms
+2 cloves garlic, minced
+1 tablespoon olive oil
+1 tablespoon butter
+2 tablespoons all-purpose flour
+1 cup beef broth
+1 cup sour cream
+Salt and pepper, to taste
+12 ounces egg noodles</t>
+  </si>
+  <si>
+    <t>Cook egg noodles according to package instructions, drain, and set aside.
+Heat olive oil and butter in a large skillet over medium heat. Add onion and garlic and sauté for 2-3 minutes, until soft and translucent.
+Add ground beef to the skillet and cook for 5-7 minutes, until browned.
+Add sliced mushrooms to the skillet and cook for 3-5 minutes, until softened.
+Sprinkle flour over the mixture in the skillet and stir until the flour is incorporated.
+Pour beef broth into the skillet and stir well. Bring the mixture to a simmer and let cook for 5-7 minutes, until the sauce has thickened.
+Reduce the heat to low and stir in sour cream until well combined. Season with salt and pepper, to taste.
+Serve the stroganoff over the cooked egg noodles, garnished with chopped fresh parsley if desired.</t>
+  </si>
+  <si>
+    <t>Charcuterie Board</t>
+  </si>
+  <si>
+    <t>Cheese: manchego, cheddar, swiss, gouda, gruyere, parmesan etc
+Meat: salami, ham, chorizo, capicola, etc
+Fruit: grapes, apricots, apples, pears, oranges
+Nuts: walnuts, candied pecans, peanuts, etc
+Crackers
+Honey</t>
+  </si>
+  <si>
+    <t>Assemble all of the ingredients on a charcuterie board and enjoy</t>
+  </si>
+  <si>
+    <t>One-Pan Lemon Garlic Chicken</t>
+  </si>
+  <si>
+    <t>4 chicken breasts
+Salt and pepper, to taste
+2 tablespoons olive oil
+1 tablespoon butter
+4 cloves garlic, minced
+1/4 cup chicken broth
+1/4 cup fresh lemon juice
+1 lemon, sliced
+1 tablespoon honey
+2 tablespoons chopped fresh parsley</t>
+  </si>
+  <si>
+    <t>Triple Chocolate Cookies</t>
+  </si>
+  <si>
+    <t>Snickerdoodles</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 400°F.
+Season chicken breasts with salt and pepper on both sides.
+Heat olive oil and butter in a large oven-safe skillet over medium-high heat. Add chicken breasts and cook for 5-7 minutes on each side, until browned.
+Remove chicken from skillet and set aside.
+Add minced garlic to the skillet and sauté for 1-2 minutes, until fragrant.
+Pour chicken broth, lemon juice, and honey into the skillet and stir to combine.
+Add lemon slices to the skillet and stir.
+Enjoy</t>
+  </si>
+  <si>
+    <t>Buffalo Chicken Dip</t>
+  </si>
+  <si>
+    <t>2 1/2 cups rotisserie chicken (chopped)
+2 (8oz) packages cream cheese (softened)
+1 cup Blue Cheese dressing
+3/4 cup Frank’s Original Red Hot Sauce
+1 1/2 cups shredded Cheddar cheese
+Celery sticks, carrot sticks, tortilla chips, potato chips, crunchy bread pieces (for serving)</t>
+  </si>
+  <si>
+    <t>Place a skillet over medium heat. Add finely chopped rotisserie chicken and hot sauce and cook until heated through.
+Add the Blue cheese dressing and cream cheese, and stir until well blended.
+Mix in half of the shredded cheese and transfer the mixture to a slow cooker.
+Sprinkle the remaining cheese on top. Cover and cook buffalo dip on low until hot and bubbly.</t>
+  </si>
+  <si>
+    <t>Chex Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, Rice, and Corn Chex 
+Cheerios 
+Pretzel Crisps 
+Nuts – An assortment of peanuts, cashews, almonds, and walnuts. Put as many types of nuts as you can find!
+Melted Butter
+Celery Salt, Garlic Salt, and Salt 
+Worcestershire Sauce 
+Cayenne Pepper and Tabasco Sauce </t>
+  </si>
+  <si>
+    <t>Preheat oven to 350. Mix dry ingredients together. Melt butter and mix seasonings in. Pour butter over chex mix ingredients, bake at 350 for 15 minutes or until crispy.</t>
+  </si>
+  <si>
+    <t>No-Bake Peanut Butter Balls</t>
+  </si>
+  <si>
+    <t>Gluten-free, Vegetarian, Vegan</t>
+  </si>
+  <si>
+    <t>1 1/2 cups rolled oats or quick oats (for gluten-free, choose certified gluten-free oats)
+2/3 cup natural peanut butter (may sub any nut or seed butter of choice)
+3 tablespoons honey or maple syrup</t>
+  </si>
+  <si>
+    <t>Add the oats to a food processor or blender. Process or blend until oats reach a flour consistency.
+Next add the peanut butter and honey or maple syrup. Process or blend until ingredients are well combined and come together to form a dough ball. May need to scrape sides once or twice.
+Roll into round bites – about a scant tablespoon per bite. If dough isn’t holding together, add 1-2 Tbsp. more of peanut butter.
+If dough starts to stick to hands, oil them with coconut oil or cooking spray.</t>
+  </si>
+  <si>
+    <t>Chex Muddy Buddies</t>
+  </si>
+  <si>
+    <t>3 cups Rice Chex® cereal
+3 cups Corn Chex® cereal
+3 cups Chocolate Chex® cereal
+1 cup semisweet chocolate chips
+½ cup peanut butter
+¼ cup butter or margarine
+1 teaspoon vanilla
+1 ½ cups powdered sugar</t>
+  </si>
+  <si>
+    <t>Combine all cereals in a large bowl; set aside.
+Place chocolate chips, peanut butter, and butter in a 1-quart microwave-safe bowl. Microwave, uncovered, on high for 1 minute, then stir. Continue warming mixture until smooth and combined, about 30 seconds longer. Stir in vanilla.
+Pour chocolate mixture over cereal and stir until evenly coated. Transfer to a 2-gallon resealable plastic bag.
+Add powdered sugar to the bag and seal; shake until well-coated. Evenly spread cereal out onto waxed paper to cool.</t>
+  </si>
+  <si>
+    <t>Homemade Hummus and Veggies</t>
+  </si>
+  <si>
+    <t>1 cup chickpeas, drained and rinsed
+2 tablespoons tahini
+1 clove garlic, minced
+1/4 cup olive oil
+2 tablespoons lemon juice
+Salt and pepper, to taste
+Carrot sticks, cucumber slices, and bell pepper slices for dipping</t>
+  </si>
+  <si>
+    <t>Vegan, Vegetarian</t>
+  </si>
+  <si>
+    <t>In a food processor, combine chickpeas, tahini, garlic, olive oil, and lemon juice. Process until smooth.
+Season with salt and pepper to taste.
+Serve with fresh veggies for dipping.</t>
+  </si>
+  <si>
+    <t>2 1/2 sticks Butter, Softened
+2 c. Sugar
+2 whole Large Eggs
+3 tsp. Vanilla Extract
+2 1/4 c. All-purpose Flour
+3/4 c. Unsweetened Cocoa Powder
+1 1/2 tsp. Baking Soda
+1 tsp. Salt
+1 1/4 c. Milk Chocolate Chips
+1 1/4 c. Good Semi Sweet Chocolate Chips</t>
+  </si>
+  <si>
+    <t>Preheat oven to 350°F.
+Using a mixer, cream butter and sugar until fluffy, scraping the sides once.
+Add eggs one at a time, mixing after each addition. Mix in vanilla.
+Sift together dry ingredients, then add in batches to the mixer, mixing until just combined after each addition.
+Gently blend in chocolate chips, reserving a few for the tops of the cookies
+Using a cookie scoop, add generous 1 tablespoon portions to baking sheet. Dot the top of each cookie with 2 to 3 chocolate chips if you’d like them to really show up on top. Bake for 9 to 11 minutes or until cookies are barely done but still soft and chewy. (Don't overbake!)</t>
+  </si>
+  <si>
+    <t>FOR CRUST:
+Blend flour, butter, sugar and salt in processor until coarse meal forms. With machine running, add water by tablespoonfuls until clumps form. Gather into ball. Flatten to disk. Wrap in plastic; chill until firm, at least 30 minutes.
+Preheat oven to 400°F. Roll out dough on floured surface to 13-inch round. Transfer to 9-inch glass pie plate. Trim edge to 1/2-inch overhang. Fold edge under and crimp. Freeze 10 minutes. Line crust with foil; fill with beans or pie weights. Bake until sides are set, about 12 minutes. Remove foil and beans.
+FOR FILLING:
+Mix first 6 ingredients in medium bowl to blend. Mix in blueberries. Spoon into crust. Bake until filling is just set, about 25 minutes.
+FOR TOPPING:
+Using fingertips, mix flour and butter in medium bowl until small clumps form. Mix in pecans and sugar. Spoon topping over pie. Bake until topping browns lightly, about 12 minutes. Cool pie to room temperature.</t>
+  </si>
+  <si>
+    <t>Mini Quiches</t>
+  </si>
+  <si>
+    <t>1 cup all-purpose flour
+1/2 cup unsalted butter, chilled and cubed
+1/4 teaspoon salt
+2-3 tablespoons ice water
+4 eggs
+1/2 cup heavy cream
+1/4 cup chopped ham
+1/4 cup chopped spinach
+1/4 cup grated Parmesan cheese
+Salt and pepper, to taste</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preheat the oven to 375°F (190°C).
 Toast the bread slices and set aside.
 In a saucepan, melt the butter over medium heat.
@@ -325,349 +895,340 @@
 To assemble, place a Croque Madame on a plate and top with a fried egg.
 Garnish with chopped parsley or chives and serve hot.
 Enjoy your Croque Madame!
-Toast the bread slices and set aside.
-In a saucepan, melt the butter over medium heat.
-Add the flour and whisk until smooth.
-Gradually add the milk, whisking constantly, until the mixture thickens and comes to a boil.
-Season the mixture with salt, pepper, and nutmeg to taste.
-Remove the saucepan from the heat and let the sauce cool for a few minutes.
-On a baking sheet, place the toast slices side by side.
-Place a slice of ham on each toast slice, followed by a slice of Swiss cheese.
-Pour the sauce over the cheese-topped toasts.
-Bake in the preheated oven for 5-10 minutes, or until the cheese is melted and bubbly.
-While the Croque Madames are baking, fry the eggs in a separate skillet to your desired doneness.
-To assemble, place a Croque Madame on a plate and top with a fried egg.
-Garnish with chopped parsley or chives and serve hot.
-Enjoy your Croque Madame!
-Preheat the oven to 375°F (190°C).
-Toast the bread slices and set aside.
-In a saucepan, melt the butter over medium heat.
-Add the flour and whisk until smooth.
-Gradually add the milk, whisking constantly, until the mixture thickens and comes to a boil.
-Season the mixture with salt, pepper, and nutmeg to taste.
-Remove the saucepan from the heat and let the sauce cool for a few minutes.
-On a baking sheet, place the toast slices side by side.
-Place a slice of ham on each toast slice, followed by a slice of Swiss cheese.
-Pour the sauce over the cheese-topped toasts.
-Bake in the preheated oven for 5-10 minutes, or until the cheese is melted and bubbly.
-While the Croque Madames are baking, fry the eggs in a separate skillet to your desired doneness.
-To assemble, place a Croque Madame on a plate and top with a fried egg.
-Garnish with chopped parsley or chives and serve hot.
-Enjoy your Croque Madame!
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Vegan </t>
-  </si>
-  <si>
-    <t>Chickpea Curry</t>
-  </si>
-  <si>
-    <t>1 can chickpeas, drained and rinsed
-1 onion, chopped
-1 garlic clove, minced
-1 tbsp olive oil
-1 tbsp curry powder
-1/2 tsp cumin
-1/4 tsp turmeric
-Salt and pepper to taste
-1 can diced tomatoes
-1 cup vegetable broth
-1 cup spinach leaves
-Cooked rice or naan bread, for serving</t>
-  </si>
-  <si>
-    <t>In a large skillet, sauté the onion and garlic in olive oil over medium heat until softened.
-Add the chickpeas, curry powder, cumin, turmeric, salt, and pepper, and stir to coat.
-Add the diced tomatoes and vegetable broth, and stir to combine.
-Bring the mixture to a simmer and cook for 10-15 minutes, or until the sauce has thickened and the chickpeas are tender.
-Add the spinach leaves and stir until wilted.
-Serve the curry over cooked rice or with naan bread.</t>
-  </si>
-  <si>
-    <t>Grilled Cheese and Tomato Soup</t>
-  </si>
-  <si>
-    <t>4 slices bread
-4 slices cheddar cheese
-2 tbsp butter
-1 can tomato soup
-1 can water
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>Preheat a skillet or griddle over medium heat.
-Butter one side of each bread slice.
-Place a slice of cheese between two slices of bread, with the buttered sides facing out.
-Grill the sandwiches until the bread is toasted and the cheese is melted, flipping once.
-Meanwhile, heat the tomato soup and water in a pot over medium heat, stirring occasionally.
-Season the soup with salt and pepper to taste.
-Serve the grilled cheese sandwiches with a side of tomato soup for dipping.</t>
-  </si>
-  <si>
-    <t>Chickpea Salad</t>
-  </si>
-  <si>
-    <t>1 can chickpeas, drained and rinsed
-1/2 cup cherry tomatoes, halved
-1/2 cup cucumber, diced
-1/4 cup red onion, diced
-1/4 cup fresh parsley, chopped
-2 tbsp olive oil
-1 tbsp lemon juice
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>n a bowl, combine the chickpeas, cherry tomatoes, cucumber, red onion, and parsley.
-In a small bowl, whisk together the olive oil, lemon juice, salt, and pepper.
-Pour the dressing over the chickpea salad and toss to coat.
-Serve the chickpea salad cold or at room temperature.</t>
-  </si>
-  <si>
-    <t>Caprese Salad</t>
-  </si>
-  <si>
-    <t>2 large ripe tomatoes, sliced
-8 oz fresh mozzarella, sliced
-1/4 cup fresh basil leaves
-2 tbsp balsamic vinegar
-2 tbsp olive oil
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>On a platter or individual plates, arrange the tomato and mozzarella slices in an alternating pattern.
-Scatter the basil leaves over the top.
-In a small bowl, whisk together the balsamic vinegar, olive oil, salt, and pepper.
-Drizzle the dressing over the Caprese salad. Serve immediately</t>
-  </si>
-  <si>
-    <t>Turkey and Avocado Wrap</t>
-  </si>
-  <si>
-    <t>1 large tortilla wrap
-2 oz deli turkey
-1/2 avocado, sliced
-1/4 cup shredded lettuce
-1/4 cup shredded cheddar cheese
-1 tbsp ranch dressing</t>
-  </si>
-  <si>
-    <t>Lay the tortilla wrap flat on a work surface.
-Arrange the deli turkey, avocado, shredded lettuce, and shredded cheddar cheese down the center of the wrap.
-Drizzle the ranch dressing over the top.
-Fold the sides of the wrap inward, then roll it up from the bottom to enclose the filling.
-Cut the wrap in half on a diagonal, and serve.</t>
-  </si>
-  <si>
-    <t>Greek Salad</t>
-  </si>
-  <si>
-    <t>2 cups mixed salad greens
-1/2 cup cherry tomatoes, halved
-1/4 cup sliced red onion
-1/4 cup sliced kalamata olives
-1/4 cup crumbled feta cheese
-2 tbsp olive oil
-1 tbsp lemon juice
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>In a large bowl, combine the salad greens, cherry tomatoes, red onion, kalamata olives, and feta cheese.
-In a small bowl, whisk together the olive oil, lemon juice, salt, and pepper.
-Pour the dressing over the salad and toss to coat.
-Serve the Greek salad cold or at room temperature.</t>
-  </si>
-  <si>
-    <t>Tuna Melt</t>
-  </si>
-  <si>
-    <t>2 slices bread
-1 can tuna, drained
-1/4 cup mayonnaise
-1/4 cup chopped celery
-1/4 cup chopped onion
-2 slices cheddar cheese</t>
-  </si>
-  <si>
-    <t>Preheat the oven to 350°F.
-In a bowl, mix together the tuna, mayonnaise, celery, and onion.
-Place one slice of bread on a baking sheet.
-Spread the tuna mixture evenly over the bread.
-Top the tuna mixture with the cheddar cheese slices.
-Place the second slice of bread on top of the cheese.
-Bake the tuna melt in the oven for 10-15 minutes, or until the cheese is melted and bubbly.
-Serve the tuna melt hot.</t>
-  </si>
-  <si>
-    <t>Vietnamese Banh Mi Sandwich</t>
-  </si>
-  <si>
-    <t>1 lb boneless pork shoulder, sliced thin
-2 tbsp soy sauce
-2 tbsp fish sauce
-2 tbsp honey
-2 tbsp vegetable oil
-1 baguette, sliced
-1/4 cup mayonnaise
-1/4 cup pickled carrots and daikon (store-bought or homemade)
-1/4 cup fresh cilantro leaves
-1 jalapeño pepper, sliced
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>Preheat the oven to 350°F.
-In a bowl, whisk together the soy sauce, fish sauce, honey, and vegetable oil.
-Add the sliced pork to the bowl and toss to coat.
-Place the pork in a baking dish and bake in the oven for 30-40 minutes, or until cooked through.
-Meanwhile, spread the mayonnaise on the baguette. When the pork is done, remove it from the oven and let it rest for a few minutes.
-Slice the baguette into sandwich-sized pieces and layer the pickled carrots and daikon, cilantro leaves, and jalapeño slices on top of the mayonnaise.
-Add the sliced pork to the sandwich.
-Season with salt and pepper to taste.</t>
-  </si>
-  <si>
-    <t>One-Pot Tomato Basil Pasta</t>
-  </si>
-  <si>
-    <t>8 oz spaghetti
-1 can diced tomatoes
-2 cloves garlic, minced
-2 cups vegetable broth
-1/2 cup fresh basil leaves, chopped
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>In a large pot, combine the spaghetti, diced tomatoes, garlic, and vegetable broth.
-Bring the mixture to a boil, then reduce the heat and let it simmer for about 10-12 minutes, or until the pasta is cooked and the liquid has mostly been absorbed.
-Stir in the chopped basil and season with salt and pepper to taste.
-Serve the tomato basil pasta hot.</t>
-  </si>
-  <si>
-    <t>Lemon Herb Roasted Chicken</t>
-  </si>
-  <si>
-    <t>1 whole chicken, about 3-4 lbs
-1/4 cup olive oil
-2 tbsp lemon juice
-2 tbsp chopped fresh herbs (rosemary, thyme, oregano)
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>Preheat the oven to 400°F.
-In a small bowl, whisk together the olive oil, lemon juice, chopped herbs, salt, and pepper.
-Rub the mixture all over the chicken, making sure to coat it well.
-Place the chicken in a roasting pan, breast-side up.
-Roast the chicken for about 1 hour and 15 minutes, or until the internal temperature reaches 165°F.
-Let the chicken rest for about 10 minutes before carving and serving.</t>
-  </si>
-  <si>
-    <t>Beef Stir-Fry with Vegetables</t>
-  </si>
-  <si>
-    <t>1 lb flank steak, sliced thin
-2 tbsp cornstarch
-2 tbsp vegetable oil
-2 cups mixed vegetables (broccoli, bell peppers, carrots, snap peas, etc.)
-2 cloves garlic, minced
-1 tbsp ginger, minced
-2 tbsp soy sauce
-1 tbsp hoisin sauce
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>In a large bowl, toss the sliced flank steak with the cornstarch until it's evenly coated.
-Heat the vegetable oil in a large wok or skillet over high heat.
-Add the sliced steak to the skillet and cook for about 2-3 minutes per side, or until browned and crispy.
-Remove the steak from the skillet and set it aside.
-Add the mixed vegetables, garlic, and ginger to the skillet and cook for about 3-4 minutes, or until the vegetables are tender-crisp.
-Add the soy sauce and hoisin sauce to the skillet and stir to combine.
-Return the cooked steak to the skillet and toss to coat it in the sauce.
-Season with salt and pepper to taste.
-Serve the beef stir-fry hot with rice or noodles.</t>
-  </si>
-  <si>
-    <t>Baked Salmon with Honey Mustard Glaze</t>
-  </si>
-  <si>
-    <t>4 salmon fillets, about 6 oz each
-1/4 cup Dijon mustard
-1/4 cup honey
-2 tbsp olive oil
-1 tsp garlic powder
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preheat the oven to 400°F.
-In a small bowl, whisk together the Dijon mustard, honey, olive oil, garlic powder, salt, and pepper.
-Arrange the salmon fillets in a baking dish and brush the honey mustard glaze over them.
-4. Bake the salmon for about 15-20 minutes, or until it's cooked through and flakes easily with a fork.
-</t>
-  </si>
-  <si>
-    <t>Black Bean Enchiladas</t>
-  </si>
-  <si>
-    <t>1 can black beans, drained and rinsed
-1/2 cup corn kernels
-1 red bell pepper, diced
-1/2 onion, diced
-1 jalapeno pepper, seeded and diced
-1 tsp ground cumin
-1 tsp chili powder
-Salt and pepper to taste
-12 corn tortillas
-1 can enchilada sauce
-1 cup shredded cheese</t>
+    <t>Key Lime Pie</t>
+  </si>
+  <si>
+    <t>FOR THE CRUST
+1½ cups finely crushed graham cracker crumbs, from about 12 whole graham crackers
+⅓ cup packed light brown sugar
+4 tablespoons unsalted butter, melted
+FOR THE FILLING
+Two 14-oz cans sweetened condensed milk
+1 cup plain Greek yogurt (2% or whole milk)
+1 tablespoon grated lime zest
+¾ cup fresh lime juice
+FOR THE TOPPING
+1 cup cold heavy cream
+2 tablespoons confectioners' sugar
+1 teaspoon grated lime zest
+8 to 10 thin lime slices</t>
+  </si>
+  <si>
+    <t>FOR THE CRUST
+Preheat oven to 375 °F and set an oven rack in the middle position.
+In a medium bowl, combine the graham cracker crumbs, brown sugar, and melted butter; stir with a fork first, and then your hands until the mixture is well combined. Using your fingers and the bottom of a glass or dry measuring cup, press the crumbs firmly into the bottom and up the sides of a 9 x 1.5-inch (deep-dish) pie pan. The crust should be about ¼-inch thick. (Tip: do the sides first.)
+Bake for 10 minutes, until just slightly browned. Let the crust cool on a wire rack.
+FOR THE FILLING
+Lower the oven temperature to 350°F.
+In a large bowl, whisk together the sweetened condensed milk, yogurt, lime zest, and lime juice. Pour the thick mixture into the warm graham cracker crust. Bake for 15 minutes, until the filling is almost set; it should wobble a bit. Let cool at room temperature for 30 minutes, then place in the refrigerator to chill thoroughly, about 3 hours.
+FOR THE TOPPING
+In the bowl of an electric mixer, beat the heavy cream until soft peaks form. Add the confectioners’ sugar and beat until medium peaks form. Top the pie with the whipped cream. Decorate with the lime zest and lime slices. Store the pie in the refrigerator until ready to serve. Slice the pie into wedges, wiping your knife clean between slices, and serve cold.</t>
+  </si>
+  <si>
+    <t>Chocolate Billionaires</t>
+  </si>
+  <si>
+    <t>1 package (14 ounces) caramels
+3 tablespoons water
+1-1/2 cups chopped pecans
+1 cup Rice Krispies</t>
+  </si>
+  <si>
+    <t>Line 2 baking sheets with waxed paper; grease the paper and set aside. In a large heavy saucepan, combine the caramels and water; cook and stir over low heat until smooth. Stir in pecans and cereal until coated. Drop by teaspoonfuls onto prepared pans. Refrigerate for 10 minutes or until firm.
+Meanwhile, in a microwave, melt chocolate chips and shortening; stir until smooth. Dip candy into chocolate, coating all sides; allow excess to drip off. Place on prepared pans. Refrigerate until set. Store in an airtight container.</t>
+  </si>
+  <si>
+    <t>Chocolate Mousse</t>
+  </si>
+  <si>
+    <t>1/4 cup semisweet chocolate chips
+1 tablespoon water
+1 large egg yolk, lightly beaten
+1-1/2 teaspoons vanilla extract
+1/2 cup heavy whipping cream</t>
+  </si>
+  <si>
+    <t>In a small saucepan, melt chocolate chips with water; stir until smooth. Stir a small amount of hot chocolate mixture into egg yolk; return all to the pan, stirring constantly. Cook and stir for 2 minutes or until slightly thickened. Remove from the heat; stir in vanilla. Quickly transfer to a small bowl. Stir occasionally until completely cooled.
+In a small bowl, beat whipping cream until it begins to thicken. Add sugar; beat until soft peaks form. Fold into cooled chocolate mixture. Cover and refrigerate for at least 2 hours. If desired, garnish with whipped cream and raspberries.</t>
   </si>
   <si>
     <t>Preheat the oven to 375°F.
-In a large bowl, combine the black beans, corn, red bell pepper, onion, jalapeno pepper, cumin, chili powder, salt, and pepper.
-Microwave the tortillas for about 20 seconds to make them pliable.
-Spoon the black bean mixture onto each tortilla and roll it up tightly.
-Arrange the rolled tortillas in a baking dish.
-Pour the enchilada sauce over the tortillas and sprinkle the shredded cheese on top.
-Cover the baking dish with foil and bake the enchiladas for about 30 minutes.
-Remove the foil and bake for an additional 10 minutes, or until the cheese is melted and bubbly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One-Pot Spaghetti Bolognese </t>
-  </si>
-  <si>
-    <t>1 pound ground beef
-1 onion, chopped
-2 cloves garlic, minced
-1 can crushed tomatoes
-4 cups beef broth
-1 tsp dried basil
-1 tsp dried oregano
-Salt and pepper to taste
-12 oz spaghetti
-Parmesan cheese for serving</t>
-  </si>
-  <si>
-    <t>In a large pot, brown the ground beef over medium-high heat until cooked through.
-Add the onion and garlic and sauté for a few minutes until softened.
-Add the crushed tomatoes, beef broth, basil, oregano, salt, and pepper and bring to a boil.
-Break the spaghetti in half and add it to the pot, stirring occasionally.
-Cook the spaghetti in the sauce for about 15-20 minutes, or until it's cooked to your liking.
-Serve the spaghetti Bolognese hot with Parmesan cheese on top.</t>
-  </si>
-  <si>
-    <t>Pan-Seared Steak with Garlic Butter</t>
-  </si>
-  <si>
-    <t>2 6-ounce sirloin steaks
-2 cloves garlic, minced
-4 tbsp unsalted butter, softened
-Salt and pepper to taste</t>
-  </si>
-  <si>
-    <t>Preheat a cast-iron skillet over high heat.
-Season the steaks generously with salt and pepper.
-Place the steaks in the hot skillet and sear for about 3-4 minutes on each side, or until a crust forms.
-Remove the steaks from the skillet and let them rest on a cutting board.
-In a small bowl, mix together the garlic and softened butter.
-Slice the steaks and top each slice with a dollop of garlic butter.
-Serve the pan-seared steak with garlic butter hot with your favorite side dishes.</t>
+In a food processor, pulse together flour, butter, and salt until the mixture resembles coarse sand.
+Add ice water, one tablespoon at a time, until the dough comes together.
+Roll the dough out on a floured surface and cut into circles using a biscuit cutter.
+Place the circles into a muffin tin and prick the bottoms with a fork.
+In a bowl, whisk together eggs, heavy cream, ham, spinach, Parmesan cheese, salt, and pepper.
+Pour the egg mixture into the muffin tin.
+Bake for 20-25 minutes, until the quiches are golden brown.</t>
+  </si>
+  <si>
+    <t>2 ¾ cups all-purpose flour
+2 teaspoon cream of tartar
+1 teaspoon baking soda
+½ teaspoon salt
+1 cup unsalted butter, just softened
+1 ½ cups sugar
+2 eggs
+1 teaspoon vanilla extract
+⅓ cup sugar
+2 tablespoons cinnamon</t>
+  </si>
+  <si>
+    <t>Preheat oven to 350°F.
+In a large bowl, mix together flour, cream of tartar, baking soda, and salt together. Set aside.
+In a stand mixer, cream together butter (barely softened) and sugar. Add eggs and vanilla and blend well.
+Add dry ingredients to wet ingredients and mix well.
+In a small bowl, combine remaining ⅓ cup sugar and 2 tablespoons cinnamon.
+Use a small cookie scoop to scoop out dough, roll into a ball and then roll into the cinnamon sugar mixture- twice.
+Place 2 inches apart on an ungreased cookie sheet.
+Bake for 8 – 10 minutes. Let sit on the cookie sheet for a few additional minutes before removing to a wire rack to cool.</t>
+  </si>
+  <si>
+    <t>Scooby Snacks</t>
+  </si>
+  <si>
+    <t>Square Pretzels
+Rolo Candies</t>
+  </si>
+  <si>
+    <t>Preheat oven to 300
+Place all square pretzels evenly on baking sheet lined with parchment paper
+Put one rolo on top of each pretzel
+Place tray in oven for 3 minutes, until chocolates slightly melt
+Place another square pretzel on top of each melted rolo. 
+Let cool and enjoy</t>
+  </si>
+  <si>
+    <t>Peanut Butter Delights</t>
+  </si>
+  <si>
+    <t>1 cup light corn syrup
+1/2 cup sugar
+1 cup peanut butter
+1 teaspoon vanilla extract
+4 to 5 cups cornflakes</t>
+  </si>
+  <si>
+    <t>In a large saucepan, bring the corn syrup and sugar to a boil. Add the peanut butter. Remove from the heat; stir in vanilla and cornflakes.
+Drop by tablespoonfuls onto waxed paper. Store in an airtight container.</t>
+  </si>
+  <si>
+    <t>4 Tablespoons (1/4 cup; 60g) unsalted butter, cut into 4 Tablespoon size pieces
+4 ounce (113g) semi-sweet chocolate bar, coarsely chopped*
+3 large eggs, separated*
+1 teaspoon pure vanilla extract
+1/8 teaspoon salt
+1/8 teaspoon cream of tartar
+3 Tablespoons (38g) granulated sugar
+1 Tablespoon (15g) unsalted butter, extra soft (the softer it is, the easier it is to spread)
+4 teaspoons (16g) granulated sugar</t>
+  </si>
+  <si>
+    <t>For the batter: Melt the 4 Tablespoons of butter and the chopped chocolate together in a double boiler or in a large heatproof bowl in the microwave. Microwave in 20 second increments, stirring after each until completely melted and combined. Slightly cool for 3-5 minutes.
+Whisk egg yolks, vanilla extract, and salt into chocolate mixture. Set aside.
+In a completely clean residue-free medium glass or metal mixing bowl, using a handheld mixer or stand mixer fitted with a whisk attachment, beat the egg whites and cream of tartar together on high speed until soft peaks form, about 2 minutes. With the mixer running on high speed, slowly add the sugar in 3 additions about 1 Tablespoon at a time, beating for 5 seconds before adding the next Tablespoon. After all 3 Tablespoons of sugar have been added, beat until stiff glossy peaks form, about 2 more minutes. Do not over-beat.
+Slowly and gently fold the egg whites into the chocolate mixture. It’s best to do this in 3 separate additions, combining each addition completely before folding in more.
+Refrigerate the batter for 5-10 minutes as you preheat the oven and prepare the ramekins. (No need to cover the batter unless you are refrigerating it for longer than 1 hour. Can be made up to 2 days in advance, see make ahead instructions below.)
+Adjust the oven rack to the lower third position and preheat to 400°F (204°C).
+Prepare the ramekins: Brush four 6-ounce oven-safe straight sided ramekins with a generous coating of the softened butter. Sprinkle in the granulated sugar, then shake/rotate each to ensure every spot of the ramekin has a sugar coating. Place ramekins on a baking sheet. Discard excess sugar.
+Spoon batter evenly into ramekins. Using a knife or icing spatula, smooth down the surface. Run a knife, icing spatula, or your thumb around the rim at the top, creating a “channel” between the batter and the rim of your pan. Feel free to wipe the edges clean with a towel, though I don’t always do that and don’t notice a difference in appearance or rise.
+Bake: Place baking sheet with ramekins on top in the oven. Immediately reduce oven temperature to 375°F (191°C). Bake for 13-14 minutes or until the edges are set and the center just barely jiggles when you give the pan a light tap. Avoid opening/closing the oven too much.
+Remove from the oven and serve immediately plain or with optional toppings. Soufflés begin to fall within minutes. You’ll still have that sponge-like texture underneath a crackly top, though it settles into a denser texture as time passes. Cover and store leftovers in the refrigerator for up to 3 days.</t>
+  </si>
+  <si>
+    <t>Chocolate Souffle</t>
+  </si>
+  <si>
+    <t>Caramel Cake</t>
+  </si>
+  <si>
+    <t>For the Cake:
+1 cup unsalted butter, room temperature 2 sticks
+⅓ cup vegetable oil
+2 ½ cups granulated sugar
+6 large eggs room temperature
+2 large egg yolks room temperature
+1 tablespoon pure vanilla extract
+3 cups cake flour, sifted
+1 teaspoon baking powder
+½ teaspoon salt
+1 cup sour cream
+For Aunt Bev’s Caramel Icing:
+1 ½ sticks butter
+2 cans evaporated milk 12 ounces each
+2 cup granulated sugar
+2 teaspoons pure vanilla extract</t>
+  </si>
+  <si>
+    <t>For the Cake:
+Preheat oven to 350 degrees.
+In a large mixing bowl, cream butter, oil and sugar on high until fully incorporated and light and fluffy, about 5-6 minutes.
+Turn mixer to medium speed and mix in eggs and egg yolks one at a time until well incorporated.
+Add in vanilla extract and mix.
+Sift cake flour, baking powder and salt into a medium sized bowl.
+With mixer on slow speed, alternate adding in flour mixture and sour cream ending with flour mixture until mixed through.
+Do not over mix.
+Spray three 9 inch round cake pans with baking spray or grease and flour them.
+Pour batter into individual cake pans evenly.
+Bake in preheated oven for 23-30 minutes or until fully baked (but DON’T OVERBAKE THESE CAKES- CHECK THEM EARILER SO THEY DON’T DRY OUT).
+Remove cake pans from oven and cool on cooling racks for 10 minutes.
+Remove cakes from pans and wait until completely cooled to ice.
+For the Caramel Icing:
+Add butter, evaporated milk, and sugar to saucepan over medium heat until everything has melted together.
+Leave over medium to low heat stirring periodically for about 1 1/2- 2 hours (watch the entire time to make sure it does not burn until thickened and caramel has darkened to a beautiful golden brown.
+Make sure that the caramel turns the color of the photo below before stopping the heat.
+It should also thickly coat the back of a spoon to ensure thickness. See notes below for additional tips for the caramel.
+Be careful to watch, adjusting heat temperature to not let it burn.
+Remove from heat and add in vanilla extract.
+Cool for about 15-20 minutes to allow it to thicken before icing the cake. If you see that it is too warm and still not completely thick enough, cool it in the refrigerator and get it thick!
+P.S. Some people like to take the caramel and whip it in a stand mixer to create more of a frosting texture. That is totally up to you.</t>
+  </si>
+  <si>
+    <t>Sour Cherry and Pistachio Danish</t>
+  </si>
+  <si>
+    <t>1 3⁄4 cups (225 g) dried sour cherries
+ 1 1⁄2 cups (350 ml) orange liqueur such as Cointreau or Grand Marnier
+ 5 star anise
+ 2 cinnamon sticks
+ 1 dried chile de árbol, stemmed
+ Juice and finely grated zest of 1½ oranges (about ⅓ cup juice)
+ Kosher salt
+ 2 large egg yolks
+ 1 tbsp. plus 1 tsp. heavy cream
+ 1 batch Tartine’s Croissants dough (pg. 28), prepared through Step 7
+ Bread flour, for dusting
+ 1⁄4 cup lightly toasted pistachios, cooled and crushed to a coarse powder in a food processor</t>
+  </si>
+  <si>
+    <t>STEP 1
+Make the cherry compote: In a small pot, combine the cherries, orange liqueur, star anise, cinnamon, chile, orange juice and zest, and a pinch of salt. Bring to a boil over medium heat, then immediately remove. Set aside to cool completely.
+STEP 2
+Drain the cherries, reserving soaking liquid. Discard the star anise and cinnamon, and transfer the cherries and chile to a food processor. Pulse to make a coarse paste, then transfer to a small bowl and set aside.
+STEP 3
+In a separate small bowl, beat the egg yolks and heavy cream; set aside. Three hours before you are ready to serve, remove the thawed dough from the refrigerator. Place the dough on a lightly floured work surface and use a rolling pin to flatten it to a 13x34-inch rectangle about 1⁄8 inch thick. Use a straight edge and a paring knife or pizza cutter to trim about ½ inch from all 4 sides so that you have an even, 12x33-inch piece of dough. With one of the long sides facing you, lightly brush a 1-inch strip along the long side farthest from you with the egg wash. Then use an offset spatula or the back of a spoon to spread the compote evenly over the rest of the dough. Roll the dough up away from you like a jelly roll to make a log about 4 inches in diameter. Press gently on the seam to seal. Cut the log in half, wrap in plastic, and transfer to the freezer to chill before slicing, 15–20 minutes. (Or, you can freeze one or both logs for up to a week. Thaw in the refrigerator before using.)
+STEP 4
+Line 4 baking sheets with parchment paper and set aside. Place 2 racks at least 3 inches apart in the center of the oven, then preheat to 400°. Set a large, wide baking dish filled with water on the floor of the oven. Remove the rolls of dough from the freezer and slice into twenty-eight to thirty 1¼-inch-thick disks. Space the disks evenly apart on the prepared baking sheets, then place in a warm, preferably humid spot. Let rise until they are puffed, very gassy, and the layers of dough are beginning to separate, 35–45 minutes.
+STEP 5
+Once risen, brush the pastries evenly with the egg wash. Bake until evenly golden brown, 24–28 minutes. Remove and brush each with some of the reserved cherry soaking liquid, then sprinkle with crushed pistachios. Serve immediately.</t>
+  </si>
+  <si>
+    <t>Pepperoni Pizza Rolls</t>
+  </si>
+  <si>
+    <t>1 ball refrigerated pizza dough (about 14 ounces), at room temperature
+All-purpose flour, for sprinkling
+1/2 c. marinara sauce, plus more for dipping
+1/2 c. grated parmesan cheese
+1/2 tsp. dried oregano
+1/2 tsp. kosher salt
+10 slices part-skim mozzarella cheese
+2 oz. sliced pepperoni, divided
+4 sticks mozzarella string cheese</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 400˚F. Roll out the pizza dough on a floured surface until it’s a very flat, large rectangle, about 11 by 18 inches. Spread with the marinara sauce, leaving a 1-inch border all around, then sprinkle with the parmesan, oregano, and salt. Evenly top with the mozzarella slices and half of the pepperoni.
+2Unwrap the string cheese and arrange it in a line on one long edge of the dough. Starting from that long edge, roll up the dough as tightly as possible so that the string cheese winds up in the middle of the roll. Pinch the seam of the dough to seal, then flip seam-side down. Slice into 1-inch pieces with a serrated knife and place the rolls cut-side up in a 12-inch round baking dish or cast-iron skillet. Tuck the remaining pepperoni into the folds of the pizza rolls, leaving just a little sticking out. Allow the rolls to rise at room temperature for 20 minutes.
+3Bake the rolls until the crust is golden and the filling is bubbly, 20 to 25 minutes. Serve with extra marinara sauce for dipping.</t>
+  </si>
+  <si>
+    <t>Homemade Soft Pretzels</t>
+  </si>
+  <si>
+    <t>1 and 1/2 cups (360ml) warm water (lukewarm– no need to take temperature but around 100°F (38°C) is great)
+2 and 1/4 teaspoons (7g) instant or active dry yeast (1 standard packet)
+1 teaspoon salt
+1 Tablespoon brown sugar or granulated sugar
+1 Tablespoon unsalted butter, melted and slightly cool
+3 and 3/4-4 cups (469-500g) all-purpose flour (spooned &amp; leveled), plus more for hands and work surface
+coarse salt or coarse sea salt for sprinkling
+Baking Soda Bath 
+1/2 cup (120g) baking soda
+9 cups (2,160ml) water</t>
+  </si>
+  <si>
+    <t>Whisk the yeast into warm water. Allow to sit for 1 minute. Whisk in salt, brown sugar, and melted butter. Slowly add 3 cups of flour, 1 cup at a time. Mix with a wooden spoon (or dough hook attached to stand mixer) until dough is thick. Add 3/4 cup more flour until the dough is no longer sticky. If it is still sticky, add 1/4 – 1/2 cup more, as needed. Poke the dough with your finger – if it bounces back, it is ready to knead.
+Turn the dough out onto a floured surface. Knead the dough for 3 minutes and shape into a ball. Cover lightly with a towel and allow to rest for 10 minutes. (Meanwhile, I like to get the water + baking soda boiling as instructed in step 6.)
+Preheat oven to 400°F (204°C). Line 2 baking sheets with parchment paper or silicone baking mats. Silicone baking mats are highly recommended over parchment paper. If using parchment paper, lightly spray with nonstick spray or grease with butter. Set aside.
+With a sharp knife or pizza cutter, cut dough into 1/3 cup sections (about 75g each).
+Roll the dough into a 20-22 inch rope. Form a circle with the dough by bringing the two ends together at the top of the circle. Twist the ends together. Bring the twisted ends back down towards yourself and press them down to form a pretzel shape.
+Bring baking soda and 9 cups of water to a boil in a large pot. Drop 1-2 pretzels into the boiling water for 20-30 seconds. Any more than that and your pretzels will have a metallic taste. Using a slotted spatula, lift the pretzel out of the water and allow as much of the excess water to drip off. Place pretzel onto prepared baking sheet. Sprinkle each with coarse sea salt. Repeat with remaining pretzels. If desired, you can cover and refrigerate the boiled/unbaked pretzels for up to 24 hours before baking in step 7.
+Bake for 12-15 minutes or until golden brown.</t>
+  </si>
+  <si>
+    <t>Nonstick cooking spray or butter, for greasing
+ 1 1⁄2 cups (13 oz.) nutty ice cream, such as pistachio
+ 11 oz. finely chopped bittersweet chocolate, divided
+ 3 cups (24 oz.) fruity ice cream (not sorbet), such as strawberry
+ 2 cups (20 oz.) vanilla ice cream
+ 1 stick (4 oz.) unsalted butter, plus more for greasing
+ 6 large egg yolks (plus half of a reserved egg shell, gently washed and dried
+ 3⁄4 cup plus 1 Tbsp. (3 oz.) pistachio or almond flour
+ 1⁄2 cup (3 oz.) rice flour
+ 6 large egg whites
+ 3⁄4 cup plus 2 Tbsp. (7 oz.) superfine sugar
+FOR THE MERINGUE TOPPING:
+ 4 large egg whites, at room temperature
+ 3⁄4 cup plus 2 Tbsp. (7 oz.) superfine sugar
+ Pinch of cream of tartar
+ Seeds scraped from 1 vanilla bean
+ 1⁄3 cup overproof spiced rum (optional)</t>
+  </si>
+  <si>
+    <t>Baked Alaska</t>
+  </si>
+  <si>
+    <t>STEP 1
+At least 1 day and up to 1 week before serving, assemble the ice cream dome: Transfer all of the ice cream to the refrigerator for 15 minutes to soften. Meanwhile, lightly spray a medium freezer-safe bowl with cooking spray, then line with 2 long sheets of plastic wrap, placed perpendicularly to fully line the bowl with a few inches overhang on each side; press to smooth.
+STEP 2
+Remove the nutty ice cream and scoop it into the prepared bowl; using a rubber spatula or small offset metal spatula, press the ice cream into the bottom of the bowl, smoothing the surface into an even, smooth layer. Sprinkle with 3 tablespoons of chopped chocolate, pressing lightly to adhere, then transfer the bowl to the freezer for 10 minutes to firm up slightly. Remove the bowl and the fruity ice cream flavor from the refrigerator; spread into an even, smooth layer. Sprinkle 5 tablespoons chopped chocolate evenly over the ice cream layer and press lightly to adhere. Transfer the bowl back to the freezer for another 10 minutes. Finally, remove the bowl from the freezer and add the vanilla ice cream. Smooth it over the chopped chocolate into an even, smooth layer. Gently fold the plastic edges over the ice cream to cover. Freeze until completely solid, about 10 hours.
+STEP 3
+Meanwhile, make the cake layer base: Preheat an oven to 350°F. Grease a 9-inch cake pan with butter, and line it with a circle of parchment paper cut to fit the bottom of the pan.
+STEP 4
+In a double boiler, combine the butter and remaining 8 ounces chocolate and cook, stirring occasionally, until just melted. Remove and set aside.
+STEP 5
+In the bowl of a food processor, add the yolks, pistachio flour, and rice flour, and pulse to combine. With the motor running, slowly drizzle in the warm chocolate mixture. Use a rubber spatula to scrape down the sides of the bowl and the blade and pulse a few times more to combine completely. Transfer the mixture to a large bowl, then set aside.
+STEP 6
+In the bowl of an electric mixer fitted with the whisk attachment, beat the 6 egg whites on high speed until medium-stiff peaks begin to form, 2-3 minutes. Add the sugar in 4 batches, whipping well after each addition to make a glossy, soft-peaked meringue.
+STEP 7
+Using a large rubber spatula and working in two batches, fold the meringue into the chocolate mixture, mixing well after each addition. Pour the batter into the prepared cake pan and bake until just set but still quite soft, 35-40 minutes. Remove and let cool completely in the tin before inverting onto a rack and removing the parchment lining. Immediately re-invert the cake onto a heat-resistant serving plate or cake stand so that the flattest part of the cake is back on the bottom. Cover with plastic wrap and set in the refrigerator to firm up for at least a few hours or ideally overnight.
+STEP 8
+A few hours before you are ready to serve, remove the bowl of ice cream from the freezer and the cake from the refrigerator. Unwrap the cake and uncover the top of the ice cream. Using the plastic wrap around the sides, lift the dome of ice cream from the bowl. (If it sticks, dunk the bottom of the bowl in large bowl of hot water for a few seconds to help release.) Place the ice cream dome, centered and flat-side down, atop the cake. Remove the plastic wrap from the dome and transfer the Baked Alaska back to the freezer.
+STEP 9
+Make the meringue topping: In the bowl of a stand mixer fitted with the whisk attachment, add the 4 egg whites; beat on medium speed until the whites begin to turn foamy, 30-60 seconds. Add the 2 tablespoons of sugar, the cream of tartar, and the vanilla seeds and continue beating until silky, soft peaks begin to form, 2-3 minutes. Reduce to medium-low speed and gradually add the rest of the sugar, 2 tablespoons at a time, until the sugar is completely incorporated and the meringue holds glossy, stiff peaks.
+STEP 10
+Immediately remove the Baked Alaska from the freezer. Using a rubber spatula, scoop the meringue evenly over the ice cream in decorative swoops and swirls. If flambéing, gently nestle the half egg shell into the top of the meringue dome. Transfer to the freezer.
+STEP 11
+Half an hour before you are ready to serve, transfer the Baked Alaska to the refrigerator to soften slightly. To serve, use a crème brulée torch to evenly brown the meringue. (If it starts to catch on fire, gently blow out the flame and continue toasting.)
+STEP 12
+To flambé the meringue, in a small pot over low heat, warm the rum for 1-2 minutes (do not boil). Place the Baked Alaska on the table to serve and, using a small metal ladle, carefully pour 2 tablespoons of rum into the eggshell. Use a long match or grill starter to light the rum in the eggshell, then, slowly and carefully ladle more rum into the shell, allowing it to flow down the meringue like a volcano. Once the alcohol has burned off and your guests have been adequately impressed, use a warm knife to slice the baked Alaska into wedges and serve immediately.</t>
+  </si>
+  <si>
+    <t>Fried Zucchini</t>
+  </si>
+  <si>
+    <t>3 medium zucchini, about 1 1/2 lbs. 
+1 1/2 tsp. salt, divided, plus more for serving
+3/4 c. all-purpose flour
+1 egg
+1/3 c. milk
+1 c. seasoned bread crumbs
+1/3 c. grated parmesan cheese
+1/2 tsp. ground black pepper
+Vegetable oil, for frying 
+Chopped parsley, for serving
+Lemon wedges, for serving</t>
+  </si>
+  <si>
+    <t>Cut the zucchini into french-fry like pieces, about 3 inches long by 1/2-inch wide. Season with 1 teaspoon of salt and place in a single layer on a paper towel lined sheet tray. Set aside for 10 minutes, then pat dry with a paper towel.
+Meanwhile, place the flour on a plate. In a wide shallow bowl, whisk together the eggs and milk. In another wide, shallow bowl, combine the breadcrumbs, parmesan cheese, remaining 1/2 teaspoon of salt and 1/2 teaspoon of black pepper.
+Working 3 to 4 zucchini pieces at a time, dredge in the flour to coat completely, dip in the egg mixture, then coat in the breadcrumb mixture. Set aside in a single layer on a sheet tray.
+Preheat the oven to 200°.
+Meanwhile, heat a large skillet filled with about 1/2-inch of vegetable oil over medium-high heat until very hot (about 350 degrees). Working in batches, cook 8 to 10 pieces of zucchini in a single layer until golden brown all over, 2 to 3 minutes. Remove from the oil and transfer to a wire rack set over a sheet tray (or a sheet tray lined with paper towels). Hold the fried zucchini warm in the oven. Continue to fry the remaining zucchini adding more oil as needed to the skillet.
+Serve warm topped with chopped parsley and lemon wedges, if you like.</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D42A0E-2169-0540-808C-E6501A07CC31}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="167" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1836,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -1286,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1298,10 +1859,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1312,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1324,10 +1885,10 @@
         <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1338,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1347,10 +1908,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -1361,7 +1922,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1373,10 +1934,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1387,7 +1948,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1396,13 +1957,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -1413,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1422,10 +1983,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -1436,7 +1997,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1445,10 +2006,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="H17">
         <v>20</v>
@@ -1459,7 +2020,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1468,10 +2029,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H18">
         <v>60</v>
@@ -1482,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1491,13 +2052,13 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H19">
         <v>25</v>
@@ -1508,7 +2069,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1517,10 +2078,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H20">
         <v>90</v>
@@ -1531,7 +2092,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1540,10 +2101,10 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H21">
         <v>45</v>
@@ -1554,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1563,10 +2124,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H22">
         <v>30</v>
@@ -1577,7 +2138,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1589,10 +2150,10 @@
         <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H23">
         <v>60</v>
@@ -1603,7 +2164,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1612,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H24">
         <v>40</v>
@@ -1626,7 +2187,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1635,13 +2196,635 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H25">
         <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +2838,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I26"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
